--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00847938</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Randomized, Controlled, Double-blind, Prospective Study, Comparing Different Doses of Neostigmine at Advanced Decurarization .</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>NEODEC</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01137487</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Impact of Not Measuring Residual Gastric Volume on Nosocomial Pneumonia Rates in Mechanically Ventilated Patients Receiving Early Enteral Feeding: a Randomized-controlled Study</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>NUTRIREA1</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01127152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Assessment of Automatic Relays by Intensive Basis Advantage Compared With Manual Relays, on the Hypotension Risks, During Noradrenalin Administration</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>ARIBA</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02085915</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evaluation of the Strip PeriScreen for the Fast Diagnosis of the Spontaneous Infection of the Liquid of Ascites During the Cirrhosis</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Per-DRISLA</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,40 +725,45 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02085902</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2013-005109-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Does the Use of Ropivacaine Facilitates Cholecystectomy by Laparoscopy in Ambulatory Surgery?</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>VesiRop</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -752,36 +782,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02159378</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fructosamines and Gestational Diabetes (FRUCTO)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>FRUCTO</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -800,32 +835,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02044133</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02413723</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>MACMAN</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02925728</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>FIFO</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -940,32 +990,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02585180</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Subglottic Secretions Surveillance to Predict Bacterial Pathogens Involved in Ventilator-associated Pneumonia (VAP): an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -984,32 +1039,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02583321</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1028,32 +1088,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02583308</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1072,36 +1137,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02395380</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Evaluation of the Predictive Nature of the Postoperative CRP on Postoperative Recovery in Patients Undergoing Colorectal Resection</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CRP-Track</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1120,36 +1190,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02711098</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>InterLeukine Ancillary Study of the Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>IL-HYPERION</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1168,36 +1243,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT02515617</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>DEMETER</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1216,36 +1296,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01994772</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>HYPERION</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1264,36 +1349,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02722473</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>NSE Ancillary Study of The Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>NSE-HYPERION</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1312,36 +1402,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02338427</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>IPA</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1360,40 +1455,45 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02873637</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2016-001519-19</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>KTSS</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1412,40 +1512,45 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT03084549</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2016-002786-62</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ROPISIO</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1464,36 +1569,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02869867</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>DIDOCAP</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1512,36 +1622,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02555254</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Impact of Speed Of Rewarming After CaRdiac Arrest and ThErapeutic Hypothermia. A Randomized Controlled Pilot Study</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>ISOCRATE</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1560,36 +1675,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02283983</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>BANQUISE</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1608,40 +1728,45 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT03431584</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2017-002298-20</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Effects on the Pain of an Infiltration by Acid Hyaluronic Association and Corticoids Versus Only Corticoids in the Rhizarthrosis.</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>RHIZ'ART</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1660,36 +1785,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02485860</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Interest in the Use of Dressings With Honey for Wound Healing After Excision of Pilonidal Cyst</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Pilomiel</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1708,36 +1838,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT03926260</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Non-controlled Prospective Pilot Study Assessing Prognostic Performance of Circulating Tumour DNA Kinetic Analysis for Monitoring Response to Treatment of Metastatic Non-small Cell Lung Cancers</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ELUCID</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1756,36 +1891,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT04328623</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Interest of Hypnosis on Pain Management During a Guided Echo Infiltration of the Hand</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>HYMN</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1804,36 +1944,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT04912206</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>EchoPAIN</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1852,36 +1997,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT05378789</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Appropriation and Impact of the Introduction of Naps During Night Work by Intensive Care Caregiver - One Year Review</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>MARIENAIE</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1900,36 +2050,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT04819425</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>"Comparison of Two Methods of Securing Endotracheal Tubes in Intensive Care : Elastic Adhesive Strips vs Lace In A Protective Sheath. A Randomized Multicenter, Cluster and Crossover Controlled Study. FIXATUB"</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>FIXATUB</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1948,36 +2103,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT04540822</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>KTESCA</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1996,36 +2156,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT05269186</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>REAVA</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2044,36 +2209,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT03998813</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>TKAFTER</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
@@ -73,7 +73,7 @@
     <t>orange</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -73,22 +73,22 @@
     <t>orange</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00847938</t>

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -76,10 +76,13 @@
     <t>NCT01127152</t>
   </si>
   <si>
+    <t>NCT02085902</t>
+  </si>
+  <si>
     <t>NCT02085915</t>
   </si>
   <si>
-    <t>NCT02085902</t>
+    <t>NCT02413723</t>
   </si>
   <si>
     <t>NCT02159378</t>
@@ -88,7 +91,7 @@
     <t>NCT02044133</t>
   </si>
   <si>
-    <t>NCT02413723</t>
+    <t>NCT02583308</t>
   </si>
   <si>
     <t>NCT02925728</t>
@@ -100,45 +103,45 @@
     <t>NCT02583321</t>
   </si>
   <si>
-    <t>NCT02583308</t>
-  </si>
-  <si>
     <t>NCT02395380</t>
   </si>
   <si>
+    <t>NCT02515617</t>
+  </si>
+  <si>
     <t>NCT02711098</t>
   </si>
   <si>
-    <t>NCT02515617</t>
-  </si>
-  <si>
     <t>NCT01994772</t>
   </si>
   <si>
+    <t>NCT02873637</t>
+  </si>
+  <si>
+    <t>NCT02338427</t>
+  </si>
+  <si>
     <t>NCT02722473</t>
   </si>
   <si>
-    <t>NCT02338427</t>
-  </si>
-  <si>
-    <t>NCT02873637</t>
+    <t>NCT02869867</t>
+  </si>
+  <si>
+    <t>NCT02283983</t>
   </si>
   <si>
     <t>NCT03084549</t>
   </si>
   <si>
-    <t>NCT02869867</t>
-  </si>
-  <si>
     <t>NCT02555254</t>
   </si>
   <si>
-    <t>NCT02283983</t>
-  </si>
-  <si>
     <t>NCT03431584</t>
   </si>
   <si>
+    <t>NCT04912206</t>
+  </si>
+  <si>
     <t>NCT02485860</t>
   </si>
   <si>
@@ -148,24 +151,21 @@
     <t>NCT04328623</t>
   </si>
   <si>
-    <t>NCT04912206</t>
-  </si>
-  <si>
     <t>NCT05378789</t>
   </si>
   <si>
     <t>NCT04819425</t>
   </si>
   <si>
+    <t>NCT05269186</t>
+  </si>
+  <si>
+    <t>NCT03998813</t>
+  </si>
+  <si>
     <t>NCT04540822</t>
   </si>
   <si>
-    <t>NCT05269186</t>
-  </si>
-  <si>
-    <t>NCT03998813</t>
-  </si>
-  <si>
     <t>2013-005109-30</t>
   </si>
   <si>
@@ -220,10 +220,13 @@
     <t>Assessment of Automatic Relays by Intensive Basis Advantage Compared With Manual Relays, on the Hypotension Risks, During Noradrenalin Administration</t>
   </si>
   <si>
+    <t>Does the Use of Ropivacaine Facilitates Cholecystectomy by Laparoscopy in Ambulatory Surgery?</t>
+  </si>
+  <si>
     <t>Evaluation of the Strip PeriScreen for the Fast Diagnosis of the Spontaneous Infection of the Liquid of Ascites During the Cirrhosis</t>
   </si>
   <si>
-    <t>Does the Use of Ropivacaine Facilitates Cholecystectomy by Laparoscopy in Ambulatory Surgery?</t>
+    <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
   </si>
   <si>
     <t>Fructosamines and Gestational Diabetes (FRUCTO)</t>
@@ -232,7 +235,7 @@
     <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
   </si>
   <si>
-    <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
+    <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
   </si>
   <si>
     <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
@@ -244,45 +247,45 @@
     <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
   </si>
   <si>
-    <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-  </si>
-  <si>
     <t>Evaluation of the Predictive Nature of the Postoperative CRP on Postoperative Recovery in Patients Undergoing Colorectal Resection</t>
   </si>
   <si>
+    <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
+  </si>
+  <si>
     <t>InterLeukine Ancillary Study of the Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
   </si>
   <si>
-    <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
-  </si>
-  <si>
     <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
   </si>
   <si>
+    <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
+  </si>
+  <si>
+    <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
+  </si>
+  <si>
     <t>NSE Ancillary Study of The Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
   </si>
   <si>
-    <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
-  </si>
-  <si>
-    <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
+    <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
+  </si>
+  <si>
+    <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
   </si>
   <si>
     <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
   </si>
   <si>
-    <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
-  </si>
-  <si>
     <t>Impact of Speed Of Rewarming After CaRdiac Arrest and ThErapeutic Hypothermia. A Randomized Controlled Pilot Study</t>
   </si>
   <si>
-    <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
-  </si>
-  <si>
     <t>Effects on the Pain of an Infiltration by Acid Hyaluronic Association and Corticoids Versus Only Corticoids in the Rhizarthrosis.</t>
   </si>
   <si>
+    <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
+  </si>
+  <si>
     <t>Interest in the Use of Dressings With Honey for Wound Healing After Excision of Pilonidal Cyst</t>
   </si>
   <si>
@@ -292,24 +295,21 @@
     <t>Interest of Hypnosis on Pain Management During a Guided Echo Infiltration of the Hand</t>
   </si>
   <si>
-    <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
-  </si>
-  <si>
     <t>Appropriation and Impact of the Introduction of Naps During Night Work by Intensive Care Caregiver - One Year Review</t>
   </si>
   <si>
     <t>"Comparison of Two Methods of Securing Endotracheal Tubes in Intensive Care : Elastic Adhesive Strips vs Lace In A Protective Sheath. A Randomized Multicenter, Cluster and Crossover Controlled Study. FIXATUB"</t>
   </si>
   <si>
+    <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
+  </si>
+  <si>
+    <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
+  </si>
+  <si>
     <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
   </si>
   <si>
-    <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
-  </si>
-  <si>
-    <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
-  </si>
-  <si>
     <t>NEODEC</t>
   </si>
   <si>
@@ -319,57 +319,60 @@
     <t>ARIBA</t>
   </si>
   <si>
+    <t>VesiRop</t>
+  </si>
+  <si>
     <t>Per-DRISLA</t>
   </si>
   <si>
-    <t>VesiRop</t>
+    <t>MACMAN</t>
   </si>
   <si>
     <t>FRUCTO</t>
   </si>
   <si>
-    <t>MACMAN</t>
-  </si>
-  <si>
     <t>FIFO</t>
   </si>
   <si>
     <t>CRP-Track</t>
   </si>
   <si>
+    <t>DEMETER</t>
+  </si>
+  <si>
     <t>IL-HYPERION</t>
   </si>
   <si>
-    <t>DEMETER</t>
-  </si>
-  <si>
     <t>HYPERION</t>
   </si>
   <si>
+    <t>KTSS</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
     <t>NSE-HYPERION</t>
   </si>
   <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>KTSS</t>
+    <t>DIDOCAP</t>
+  </si>
+  <si>
+    <t>BANQUISE</t>
   </si>
   <si>
     <t>ROPISIO</t>
   </si>
   <si>
-    <t>DIDOCAP</t>
-  </si>
-  <si>
     <t>ISOCRATE</t>
   </si>
   <si>
-    <t>BANQUISE</t>
-  </si>
-  <si>
     <t>RHIZ'ART</t>
   </si>
   <si>
+    <t>EchoPAIN</t>
+  </si>
+  <si>
     <t>Pilomiel</t>
   </si>
   <si>
@@ -379,22 +382,19 @@
     <t>HYMN</t>
   </si>
   <si>
-    <t>EchoPAIN</t>
-  </si>
-  <si>
     <t>MARIENAIE</t>
   </si>
   <si>
     <t>FIXATUB</t>
   </si>
   <si>
+    <t>REAVA</t>
+  </si>
+  <si>
+    <t>TKAFTER</t>
+  </si>
+  <si>
     <t>KTESCA</t>
-  </si>
-  <si>
-    <t>REAVA</t>
-  </si>
-  <si>
-    <t>TKAFTER</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -876,14 +876,17 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
@@ -894,22 +897,19 @@
         <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
@@ -920,15 +920,15 @@
         <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -943,15 +943,15 @@
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -962,16 +962,19 @@
       <c r="G8" t="s">
         <v>71</v>
       </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
       <c r="I8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -982,19 +985,16 @@
       <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1005,19 +1005,16 @@
       <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1028,8 +1025,11 @@
       <c r="G11" t="s">
         <v>74</v>
       </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1115,7 +1115,7 @@
         <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1138,7 +1138,7 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1166,14 +1166,17 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
       <c r="F18" t="s">
         <v>59</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1212,17 +1215,14 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" t="s">
         <v>59</v>
       </c>
@@ -1233,22 +1233,19 @@
         <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1287,14 +1284,17 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1328,7 +1328,7 @@
         <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1377,15 +1377,15 @@
         <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1400,15 +1400,15 @@
         <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1423,7 +1423,7 @@
         <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1446,7 +1446,7 @@
         <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1515,7 +1515,7 @@
         <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1538,7 +1538,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1561,7 +1561,7 @@
         <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage2/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00847938</t>
@@ -82,90 +82,90 @@
     <t>NCT02085915</t>
   </si>
   <si>
+    <t>NCT02044133</t>
+  </si>
+  <si>
     <t>NCT02413723</t>
   </si>
   <si>
     <t>NCT02159378</t>
   </si>
   <si>
-    <t>NCT02044133</t>
+    <t>NCT02925728</t>
+  </si>
+  <si>
+    <t>NCT02583321</t>
+  </si>
+  <si>
+    <t>NCT02585180</t>
   </si>
   <si>
     <t>NCT02583308</t>
   </si>
   <si>
-    <t>NCT02925728</t>
-  </si>
-  <si>
-    <t>NCT02585180</t>
-  </si>
-  <si>
-    <t>NCT02583321</t>
-  </si>
-  <si>
     <t>NCT02395380</t>
   </si>
   <si>
+    <t>NCT01994772</t>
+  </si>
+  <si>
     <t>NCT02515617</t>
   </si>
   <si>
+    <t>NCT02722473</t>
+  </si>
+  <si>
+    <t>NCT02873637</t>
+  </si>
+  <si>
+    <t>NCT02338427</t>
+  </si>
+  <si>
     <t>NCT02711098</t>
   </si>
   <si>
-    <t>NCT01994772</t>
-  </si>
-  <si>
-    <t>NCT02873637</t>
-  </si>
-  <si>
-    <t>NCT02338427</t>
-  </si>
-  <si>
-    <t>NCT02722473</t>
+    <t>NCT02555254</t>
+  </si>
+  <si>
+    <t>NCT03084549</t>
+  </si>
+  <si>
+    <t>NCT02283983</t>
   </si>
   <si>
     <t>NCT02869867</t>
   </si>
   <si>
-    <t>NCT02283983</t>
-  </si>
-  <si>
-    <t>NCT03084549</t>
-  </si>
-  <si>
-    <t>NCT02555254</t>
-  </si>
-  <si>
     <t>NCT03431584</t>
   </si>
   <si>
+    <t>NCT02485860</t>
+  </si>
+  <si>
     <t>NCT04912206</t>
   </si>
   <si>
-    <t>NCT02485860</t>
-  </si>
-  <si>
     <t>NCT03926260</t>
   </si>
   <si>
     <t>NCT04328623</t>
   </si>
   <si>
+    <t>NCT04819425</t>
+  </si>
+  <si>
     <t>NCT05378789</t>
   </si>
   <si>
-    <t>NCT04819425</t>
+    <t>NCT04540822</t>
+  </si>
+  <si>
+    <t>NCT03998813</t>
   </si>
   <si>
     <t>NCT05269186</t>
   </si>
   <si>
-    <t>NCT03998813</t>
-  </si>
-  <si>
-    <t>NCT04540822</t>
-  </si>
-  <si>
     <t>2013-005109-30</t>
   </si>
   <si>
@@ -226,90 +226,90 @@
     <t>Evaluation of the Strip PeriScreen for the Fast Diagnosis of the Spontaneous Infection of the Liquid of Ascites During the Cirrhosis</t>
   </si>
   <si>
+    <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
+  </si>
+  <si>
     <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
   </si>
   <si>
     <t>Fructosamines and Gestational Diabetes (FRUCTO)</t>
   </si>
   <si>
-    <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
+    <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
+  </si>
+  <si>
+    <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
+  </si>
+  <si>
+    <t>Subglottic Secretions Surveillance to Predict Bacterial Pathogens Involved in Ventilator-associated Pneumonia (VAP): an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
   </si>
   <si>
     <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
   </si>
   <si>
-    <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
-  </si>
-  <si>
-    <t>Subglottic Secretions Surveillance to Predict Bacterial Pathogens Involved in Ventilator-associated Pneumonia (VAP): an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-  </si>
-  <si>
-    <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-  </si>
-  <si>
     <t>Evaluation of the Predictive Nature of the Postoperative CRP on Postoperative Recovery in Patients Undergoing Colorectal Resection</t>
   </si>
   <si>
+    <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
+  </si>
+  <si>
     <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
   </si>
   <si>
+    <t>NSE Ancillary Study of The Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
+  </si>
+  <si>
+    <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
+  </si>
+  <si>
+    <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
+  </si>
+  <si>
     <t>InterLeukine Ancillary Study of the Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
   </si>
   <si>
-    <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
-  </si>
-  <si>
-    <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
-  </si>
-  <si>
-    <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
-  </si>
-  <si>
-    <t>NSE Ancillary Study of The Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
+    <t>Impact of Speed Of Rewarming After CaRdiac Arrest and ThErapeutic Hypothermia. A Randomized Controlled Pilot Study</t>
+  </si>
+  <si>
+    <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
+  </si>
+  <si>
+    <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
   </si>
   <si>
     <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
   </si>
   <si>
-    <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
-  </si>
-  <si>
-    <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
-  </si>
-  <si>
-    <t>Impact of Speed Of Rewarming After CaRdiac Arrest and ThErapeutic Hypothermia. A Randomized Controlled Pilot Study</t>
-  </si>
-  <si>
     <t>Effects on the Pain of an Infiltration by Acid Hyaluronic Association and Corticoids Versus Only Corticoids in the Rhizarthrosis.</t>
   </si>
   <si>
+    <t>Interest in the Use of Dressings With Honey for Wound Healing After Excision of Pilonidal Cyst</t>
+  </si>
+  <si>
     <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
   </si>
   <si>
-    <t>Interest in the Use of Dressings With Honey for Wound Healing After Excision of Pilonidal Cyst</t>
-  </si>
-  <si>
     <t>Non-controlled Prospective Pilot Study Assessing Prognostic Performance of Circulating Tumour DNA Kinetic Analysis for Monitoring Response to Treatment of Metastatic Non-small Cell Lung Cancers</t>
   </si>
   <si>
     <t>Interest of Hypnosis on Pain Management During a Guided Echo Infiltration of the Hand</t>
   </si>
   <si>
+    <t>"Comparison of Two Methods of Securing Endotracheal Tubes in Intensive Care : Elastic Adhesive Strips vs Lace In A Protective Sheath. A Randomized Multicenter, Cluster and Crossover Controlled Study. FIXATUB"</t>
+  </si>
+  <si>
     <t>Appropriation and Impact of the Introduction of Naps During Night Work by Intensive Care Caregiver - One Year Review</t>
   </si>
   <si>
-    <t>"Comparison of Two Methods of Securing Endotracheal Tubes in Intensive Care : Elastic Adhesive Strips vs Lace In A Protective Sheath. A Randomized Multicenter, Cluster and Crossover Controlled Study. FIXATUB"</t>
+    <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
+  </si>
+  <si>
+    <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
   </si>
   <si>
     <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
   </si>
   <si>
-    <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
-  </si>
-  <si>
-    <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
-  </si>
-  <si>
     <t>NEODEC</t>
   </si>
   <si>
@@ -337,64 +337,64 @@
     <t>CRP-Track</t>
   </si>
   <si>
+    <t>HYPERION</t>
+  </si>
+  <si>
     <t>DEMETER</t>
   </si>
   <si>
+    <t>NSE-HYPERION</t>
+  </si>
+  <si>
+    <t>KTSS</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
     <t>IL-HYPERION</t>
   </si>
   <si>
-    <t>HYPERION</t>
-  </si>
-  <si>
-    <t>KTSS</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>NSE-HYPERION</t>
+    <t>ISOCRATE</t>
+  </si>
+  <si>
+    <t>ROPISIO</t>
+  </si>
+  <si>
+    <t>BANQUISE</t>
   </si>
   <si>
     <t>DIDOCAP</t>
   </si>
   <si>
-    <t>BANQUISE</t>
-  </si>
-  <si>
-    <t>ROPISIO</t>
-  </si>
-  <si>
-    <t>ISOCRATE</t>
-  </si>
-  <si>
     <t>RHIZ'ART</t>
   </si>
   <si>
+    <t>Pilomiel</t>
+  </si>
+  <si>
     <t>EchoPAIN</t>
   </si>
   <si>
-    <t>Pilomiel</t>
-  </si>
-  <si>
     <t>ELUCID</t>
   </si>
   <si>
     <t>HYMN</t>
   </si>
   <si>
+    <t>FIXATUB</t>
+  </si>
+  <si>
     <t>MARIENAIE</t>
   </si>
   <si>
-    <t>FIXATUB</t>
+    <t>KTESCA</t>
+  </si>
+  <si>
+    <t>TKAFTER</t>
   </si>
   <si>
     <t>REAVA</t>
-  </si>
-  <si>
-    <t>TKAFTER</t>
-  </si>
-  <si>
-    <t>KTESCA</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -925,10 +925,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -939,19 +939,16 @@
       <c r="G7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -963,18 +960,18 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -985,16 +982,19 @@
       <c r="G9" t="s">
         <v>72</v>
       </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
       <c r="I9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1005,16 +1005,19 @@
       <c r="G10" t="s">
         <v>73</v>
       </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1025,11 +1028,8 @@
       <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1097,10 +1097,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1138,15 +1138,15 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1161,7 +1161,7 @@
         <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1256,19 +1256,22 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" t="s">
         <v>60</v>
       </c>
@@ -1279,22 +1282,19 @@
         <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1328,7 +1328,7 @@
         <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1377,7 +1377,7 @@
         <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1400,7 +1400,7 @@
         <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1469,7 +1469,7 @@
         <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1492,7 +1492,7 @@
         <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1515,7 +1515,7 @@
         <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1561,7 +1561,7 @@
         <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
